--- a/SPRINT_DOCUMENTATION/burndownchart_10_10_2019.xlsx
+++ b/SPRINT_DOCUMENTATION/burndownchart_10_10_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbarkow\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbarkow\Documents\Skole\3. semester\Software Design 3\XP (Extreme Programming)XP_Kino_Lasse_Christian_Philip_Sofie_Gustav\SPRINT_DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA39E136-81FD-4A30-A8F1-03BDDBE1D7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DDC07F-1543-41E4-B526-9D80298E3CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1054,10 +1054,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1247,22 +1247,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.6</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.200000000000003</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.800000000000002</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4000000000000021</c:v>
+                  <c:v>3.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7763568394002505E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1785,10 +1785,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2027,22 +2027,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.6</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.200000000000003</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.800000000000002</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4000000000000021</c:v>
+                  <c:v>3.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7763568394002505E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3899,10 +3899,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3980,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
@@ -4203,11 +4203,15 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="21">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -4229,19 +4233,23 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="21">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
@@ -4263,19 +4271,23 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="21">
-        <v>5</v>
-      </c>
-      <c r="C11" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -4297,19 +4309,23 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="21">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
@@ -4330,23 +4346,23 @@
       <c r="U12" s="22"/>
       <c r="V12" s="23"/>
       <c r="W12" s="28">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>B12-SUM(C12:V12)</f>
+        <v>0</v>
       </c>
       <c r="X12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(1-(W12/B12),"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
@@ -4368,23 +4384,23 @@
       <c r="U13" s="22"/>
       <c r="V13" s="23"/>
       <c r="W13" s="28">
-        <f t="shared" si="0"/>
+        <f>B13-SUM(C13:V13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="17">
-        <f t="shared" si="1"/>
+        <f>IFERROR(1-(W13/B13),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="22"/>
@@ -4406,24 +4422,18 @@
       <c r="U14" s="22"/>
       <c r="V14" s="23"/>
       <c r="W14" s="28">
-        <f t="shared" si="0"/>
+        <f>B14-SUM(C14:V14)</f>
         <v>0</v>
       </c>
       <c r="X14" s="17">
-        <f t="shared" si="1"/>
+        <f>IFERROR(1-(W14/B14),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
@@ -4444,24 +4454,18 @@
       <c r="U15" s="22"/>
       <c r="V15" s="23"/>
       <c r="W15" s="28">
-        <f t="shared" si="0"/>
+        <f>B15-SUM(C15:V15)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="X15" s="17" t="str">
+        <f>IFERROR(1-(W15/B15),"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
@@ -4482,21 +4486,17 @@
       <c r="U16" s="22"/>
       <c r="V16" s="23"/>
       <c r="W16" s="28">
-        <f t="shared" si="0"/>
+        <f>B16-SUM(C16:V16)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="X16" s="17" t="str">
+        <f>IFERROR(1-(W16/B16),"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="21">
-        <v>5</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="22"/>
@@ -4518,24 +4518,18 @@
       <c r="U17" s="22"/>
       <c r="V17" s="23"/>
       <c r="W17" s="28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="X17" s="17">
-        <f t="shared" si="1"/>
+        <f>B17-SUM(C17:V17)</f>
         <v>0</v>
+      </c>
+      <c r="X17" s="17" t="str">
+        <f>IFERROR(1-(W17/B17),"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="21">
-        <v>3</v>
-      </c>
-      <c r="C18" s="22">
-        <v>3</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
@@ -4556,12 +4550,12 @@
       <c r="U18" s="22"/>
       <c r="V18" s="23"/>
       <c r="W18" s="28">
-        <f t="shared" si="0"/>
+        <f>B18-SUM(C18:V18)</f>
         <v>0</v>
       </c>
-      <c r="X18" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="X18" s="17" t="str">
+        <f>IFERROR(1-(W18/B18),"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5216,11 +5210,11 @@
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -5300,11 +5294,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.32432432432432434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5313,27 +5307,27 @@
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>29.6</v>
+        <v>13.6</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>22.200000000000003</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>14.800000000000002</v>
+        <v>6.7999999999999989</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>7.4000000000000021</v>
-      </c>
-      <c r="G39" s="13">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="G39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.7763568394002505E-15</v>
+        <v>-</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" si="3"/>
